--- a/Remise Finale/Test_Joe.xlsx
+++ b/Remise Finale/Test_Joe.xlsx
@@ -20,6 +20,8 @@
     <sheet name="Formulaire Personnes (280)" sheetId="8" r:id="rId6"/>
     <sheet name="Rapport Catégorie (310)" sheetId="9" r:id="rId7"/>
     <sheet name="Formulaire Catégories (320)" sheetId="10" r:id="rId8"/>
+    <sheet name="Rapport École (330)" sheetId="11" r:id="rId9"/>
+    <sheet name="Formulaire École (340)" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="113">
   <si>
     <t>\</t>
   </si>
@@ -310,6 +312,66 @@
   </si>
   <si>
     <t>T-Categories-02</t>
+  </si>
+  <si>
+    <t>T-ECOLES-01</t>
+  </si>
+  <si>
+    <t>T-ECOLES-02</t>
+  </si>
+  <si>
+    <t>Redirection page 340 - Création d'une catégorie</t>
+  </si>
+  <si>
+    <t>Redirection page 340 - Modification d'une catégorie</t>
+  </si>
+  <si>
+    <t>T-Ecoles-1</t>
+  </si>
+  <si>
+    <t>T-Ecoles-2</t>
+  </si>
+  <si>
+    <t>T-Ecoles-3</t>
+  </si>
+  <si>
+    <t>T-Ecoles-4</t>
+  </si>
+  <si>
+    <t>T-Ecoles-5</t>
+  </si>
+  <si>
+    <t>T-Ecoles-6</t>
+  </si>
+  <si>
+    <t>T-Ecoles-7</t>
+  </si>
+  <si>
+    <t>T-Ecoles-8</t>
+  </si>
+  <si>
+    <t>T-Ecoles-9</t>
+  </si>
+  <si>
+    <t>T-Ecoles-10</t>
+  </si>
+  <si>
+    <t>T-Ecoles-11</t>
+  </si>
+  <si>
+    <t>École supprimée</t>
+  </si>
+  <si>
+    <t>T-Ecoles-12</t>
+  </si>
+  <si>
+    <t>Cell Contact --&gt; 8139992325</t>
+  </si>
+  <si>
+    <t>Cell Contact --&gt; 81a999aaaa</t>
+  </si>
+  <si>
+    <t>Tests - Formulaire Écoles</t>
   </si>
 </sst>
 </file>
@@ -332,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +419,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -460,11 +528,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -484,39 +565,264 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+  <dxfs count="73">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -655,22 +961,41 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -774,6 +1099,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -781,15 +1115,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -891,6 +1216,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -898,15 +1232,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1008,6 +1333,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1015,15 +1349,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1125,6 +1450,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1132,15 +1466,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1242,6 +1567,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1249,15 +1583,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1359,6 +1684,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1366,15 +1700,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1413,7 +1738,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau312" displayName="Tableau312" ref="A4:D6" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="54" tableBorderDxfId="55" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau312" displayName="Tableau312" ref="A4:D6" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+  <autoFilter ref="A4:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="68"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="67"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="66"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="65"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3124" displayName="Tableau3124" ref="A4:D18" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+  <autoFilter ref="A4:D18"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="60"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="59"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="58"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="57"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau31210" displayName="Tableau31210" ref="A4:D6" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="A4:D6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numéro " dataDxfId="52"/>
@@ -1425,9 +1776,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3124" displayName="Tableau3124" ref="A4:D18" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
-  <autoFilter ref="A4:D18"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau31211" displayName="Tableau31211" ref="A4:D7" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <autoFilter ref="A4:D7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numéro " dataDxfId="44"/>
     <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="43"/>
@@ -1438,9 +1789,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau31210" displayName="Tableau31210" ref="A4:D6" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
-  <autoFilter ref="A4:D6"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau3121112" displayName="Tableau3121112" ref="A4:D15" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+  <autoFilter ref="A4:D15"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numéro " dataDxfId="36"/>
     <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="35"/>
@@ -1451,9 +1802,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau31211" displayName="Tableau31211" ref="A4:D7" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
-  <autoFilter ref="A4:D7"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau3121114" displayName="Tableau3121114" ref="A4:D6" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A4:D6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numéro " dataDxfId="28"/>
     <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="27"/>
@@ -1464,40 +1815,40 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau3121112" displayName="Tableau3121112" ref="A4:D15" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
-  <autoFilter ref="A4:D15"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau3121015" displayName="Tableau3121015" ref="A4:D6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A4:D6"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="20"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="19"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="18"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="17"/>
+    <tableColumn id="1" name="Numéro " dataDxfId="19"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="18"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="17"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau3121114" displayName="Tableau3121114" ref="A4:D6" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
-  <autoFilter ref="A4:D6"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau31211143" displayName="Tableau31211143" ref="A3:D5" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A3:D5"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="12"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="11"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="10"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="9"/>
+    <tableColumn id="1" name="Numéro " dataDxfId="11"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="10"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="9"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau3121015" displayName="Tableau3121015" ref="A4:D6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A4:D6"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau31211125" displayName="Tableau31211125" ref="A3:D15" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A3:D15"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="4"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="3"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="2"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="1"/>
+    <tableColumn id="1" name="Numéro " dataDxfId="3"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="2"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="1"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1768,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,17 +2238,19 @@
       <c r="A19">
         <v>320</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>330</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>340</v>
       </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1928,6 +2281,7 @@
       <c r="A27">
         <v>420</v>
       </c>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2006,6 +2360,232 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2026,28 +2606,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2125,28 +2705,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2387,28 +2967,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2482,28 +3062,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2578,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2591,28 +3171,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2778,7 +3358,7 @@
       <c r="C15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2800,7 +3380,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D38"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,28 +3392,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2895,7 +3475,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,28 +3486,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2944,30 +3524,30 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2982,4 +3562,89 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>